--- a/計画/03_反復計画書.xlsx
+++ b/計画/03_反復計画書.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22919"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{C0FAF830-E806-4227-9571-5ABBFFAADC26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{30D1452B-3B85-4F6E-8256-09EC854A14D6}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D37ED9E-1BB4-4703-9313-376A1A83EBC4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="35">
   <si>
     <t>プロジェクト全体のゴール</t>
     <rPh sb="6" eb="8">
@@ -552,9 +552,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2.5日間</t>
-  </si>
-  <si>
     <t>4.5日</t>
   </si>
   <si>
@@ -575,11 +572,49 @@
 ・口コミの投稿、閲覧ができる</t>
   </si>
   <si>
-    <t>・データベースでコンテンツ情報やユーザ情報、口コミ情報を管理
-・可能であればGUI可</t>
-  </si>
-  <si>
     <t>2.25日間</t>
+  </si>
+  <si>
+    <t>1.75日間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ログインせずに閲覧ができるユーザー実装
+・会員登録機能の追加
+・UIの改善
+・部分的にデータベース実装</t>
+    <rPh sb="8" eb="10">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>ブブンテキ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3日</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -589,7 +624,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1076,6 +1111,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -1111,15 +1155,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1462,10 +1497,10 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.75" customWidth="1"/>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
@@ -1474,39 +1509,39 @@
     <col min="5" max="5" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="39"/>
-      <c r="B2" s="44"/>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="46"/>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="39"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="46"/>
-    </row>
-    <row r="4" spans="1:5" ht="54.75" customHeight="1" thickBot="1">
-      <c r="A4" s="40"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="46"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A2" s="42"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="49"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A3" s="42"/>
+      <c r="B3" s="47"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="49"/>
+    </row>
+    <row r="4" spans="1:5" ht="54.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="43"/>
+      <c r="B4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="52"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
@@ -1521,7 +1556,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="19"/>
       <c r="B6" s="14" t="s">
         <v>5</v>
@@ -1536,7 +1571,7 @@
         <v>43993</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
       <c r="B7" s="14" t="s">
         <v>6</v>
@@ -1551,22 +1586,22 @@
         <v>43997</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
       <c r="B8" s="14" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E8" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="99" customHeight="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
       <c r="B9" s="14" t="s">
         <v>8</v>
@@ -1575,13 +1610,13 @@
         <v>24</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="134.25" customHeight="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="14" t="s">
         <v>9</v>
@@ -1593,10 +1628,10 @@
         <v>26</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.25" thickBot="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A11" s="19"/>
       <c r="B11" s="14" t="s">
         <v>10</v>
@@ -1605,44 +1640,48 @@
       <c r="D11" s="20"/>
       <c r="E11" s="21"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C12" s="50">
+      <c r="C12" s="38">
         <v>43984</v>
       </c>
-      <c r="D12" s="50">
+      <c r="D12" s="38">
         <v>43990</v>
       </c>
       <c r="E12" s="13"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="C13" s="51">
+      <c r="C13" s="39">
         <v>43990</v>
       </c>
-      <c r="D13" s="10"/>
+      <c r="D13" s="39">
+        <v>43993</v>
+      </c>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="52" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="10"/>
+      <c r="C14" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>34</v>
+      </c>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:5" ht="93" customHeight="1">
+    <row r="15" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="23" t="s">
         <v>9</v>
@@ -1650,10 +1689,12 @@
       <c r="C15" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D15" s="10"/>
+      <c r="D15" s="27" t="s">
+        <v>26</v>
+      </c>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5" ht="26.25" customHeight="1" thickBot="1">
+    <row r="16" spans="1:5" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="24" t="s">
         <v>10</v>
@@ -1683,7 +1724,7 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
@@ -1692,8 +1733,8 @@
     <col min="5" max="5" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" customHeight="1">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="41" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -1703,8 +1744,8 @@
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="21" customHeight="1">
-      <c r="A2" s="39"/>
+    <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="42"/>
       <c r="B2" s="4" t="s">
         <v>13</v>
       </c>
@@ -1712,8 +1753,8 @@
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
-    <row r="3" spans="1:5" ht="18" customHeight="1">
-      <c r="A3" s="39"/>
+    <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="42"/>
       <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
@@ -1721,14 +1762,14 @@
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
-    <row r="4" spans="1:5" ht="14.25" thickBot="1">
-      <c r="A4" s="40"/>
+    <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="43"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>1</v>
       </c>
@@ -1743,7 +1784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A6" s="19"/>
       <c r="B6" s="14" t="s">
         <v>5</v>
@@ -1758,7 +1799,7 @@
         <v>44024</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A7" s="19"/>
       <c r="B7" s="14" t="s">
         <v>6</v>
@@ -1773,7 +1814,7 @@
         <v>44029</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="19"/>
       <c r="B8" s="14" t="s">
         <v>7</v>
@@ -1788,7 +1829,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="76.5" customHeight="1">
+    <row r="9" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="19"/>
       <c r="B9" s="14" t="s">
         <v>8</v>
@@ -1803,7 +1844,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="139.5" customHeight="1">
+    <row r="10" spans="1:5" ht="139.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="19"/>
       <c r="B10" s="14" t="s">
         <v>9</v>
@@ -1818,7 +1859,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" s="14" t="s">
         <v>10</v>
@@ -1827,7 +1868,7 @@
       <c r="D11" s="10"/>
       <c r="E11" s="15"/>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -1838,7 +1879,7 @@
       <c r="D12" s="35"/>
       <c r="E12" s="36"/>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="4"/>
       <c r="B13" s="23" t="s">
         <v>6</v>
@@ -1847,7 +1888,7 @@
       <c r="D13" s="10"/>
       <c r="E13" s="15"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="4"/>
       <c r="B14" s="23" t="s">
         <v>7</v>
@@ -1856,7 +1897,7 @@
       <c r="D14" s="10"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:5" ht="42.75" customHeight="1">
+    <row r="15" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="23" t="s">
         <v>9</v>
@@ -1865,7 +1906,7 @@
       <c r="D15" s="10"/>
       <c r="E15" s="15"/>
     </row>
-    <row r="16" spans="1:5" ht="14.25" thickBot="1">
+    <row r="16" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="24" t="s">
         <v>10</v>
@@ -1887,12 +1928,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2080,15 +2118,26 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2112,17 +2161,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/計画/03_反復計画書.xlsx
+++ b/計画/03_反復計画書.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D37ED9E-1BB4-4703-9313-376A1A83EBC4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B70FAF7-AF55-4D6A-80FA-B2C53F982AF1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -558,6 +558,55 @@
     <t>3日間</t>
   </si>
   <si>
+    <t>・ユーザがコンテンツ、口コミ情報を投稿し、管理ができる
+・口コミの投稿、閲覧ができる</t>
+  </si>
+  <si>
+    <t>2.25日間</t>
+  </si>
+  <si>
+    <t>1.75日間</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ログインせずに閲覧ができるユーザー実装
+・会員登録機能の追加
+・UIの改善
+・部分的にデータベース実装</t>
+    <rPh sb="8" eb="10">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>ブブンテキ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ジッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3日</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>反復計画書(更新)
 WBS&amp;ガントチャート(更新)
 要求仕様書(更新)
@@ -566,54 +615,6 @@
 テスト計画書(更新)
 テスト済のソースコード(更新)
 発表資料(新規作成)</t>
-  </si>
-  <si>
-    <t>・ユーザがコンテンツ、口コミ情報を投稿し、管理ができる
-・口コミの投稿、閲覧ができる</t>
-  </si>
-  <si>
-    <t>2.25日間</t>
-  </si>
-  <si>
-    <t>1.75日間</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>・ログインせずに閲覧ができるユーザー実装
-・会員登録機能の追加
-・UIの改善
-・部分的にデータベース実装</t>
-    <rPh sb="8" eb="10">
-      <t>エツラン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>カイゼン</t>
-    </rPh>
-    <rPh sb="40" eb="43">
-      <t>ブブンテキ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>3日</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1496,8 +1497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1595,10 +1596,10 @@
         <v>28</v>
       </c>
       <c r="D8" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" s="21" t="s">
         <v>31</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.15">
@@ -1610,10 +1611,10 @@
         <v>24</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1628,7 +1629,7 @@
         <v>26</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1677,7 +1678,7 @@
         <v>27</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E14" s="15"/>
     </row>

--- a/計画/03_反復計画書.xlsx
+++ b/計画/03_反復計画書.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B70FAF7-AF55-4D6A-80FA-B2C53F982AF1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EE161C-D8D3-4D9E-B1AE-DFE840224F08}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -435,59 +435,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>①チケット予約システムの基本機能の作成
-②漫画の口コミ投稿閲覧システムの作成
-・データベースでユーザ情報、口コミ情報の管理
-・口コミの投稿、閲覧
-・GUIへの拡張</t>
-    <rPh sb="5" eb="7">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>キホン</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="21" eb="23">
-      <t>マンガ</t>
-    </rPh>
-    <rPh sb="24" eb="25">
-      <t>クチ</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>エツラン</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="53" eb="54">
-      <t>クチ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="63" eb="64">
-      <t>クチ</t>
-    </rPh>
-    <rPh sb="67" eb="69">
-      <t>トウコウ</t>
-    </rPh>
-    <rPh sb="70" eb="72">
-      <t>エツラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>反復計画書(更新)
 WBS&amp;ガントチャート(更新)
 要求仕様書(新規)
@@ -569,40 +516,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>・ログインせずに閲覧ができるユーザー実装
-・会員登録機能の追加
-・UIの改善
-・部分的にデータベース実装</t>
-    <rPh sb="8" eb="10">
-      <t>エツラン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ジッソウ</t>
-    </rPh>
-    <rPh sb="22" eb="24">
-      <t>カイイン</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="26" eb="28">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="29" eb="31">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="36" eb="38">
-      <t>カイゼン</t>
-    </rPh>
-    <rPh sb="40" eb="43">
-      <t>ブブンテキ</t>
-    </rPh>
-    <rPh sb="50" eb="52">
-      <t>ジッソウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>3日</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -615,6 +528,96 @@
 テスト計画書(更新)
 テスト済のソースコード(更新)
 発表資料(新規作成)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">①チケット予約システムの基本機能の作成
+②漫画の口コミ投稿閲覧システムの作成
+・データベースでユーザ情報、口コミ情報の管理
+・口コミの投稿、閲覧
+</t>
+    <rPh sb="5" eb="7">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>キホン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>マンガ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="63" eb="64">
+      <t>クチ</t>
+    </rPh>
+    <rPh sb="67" eb="69">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="70" eb="72">
+      <t>エツラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・ログインせずに閲覧ができるユーザー実装
+・会員登録機能の追加
+・UIの改善
+・会員リストの管理にデータベース実装</t>
+    <rPh sb="8" eb="10">
+      <t>エツラン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ジッソウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>カイゼン</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>カイイン</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="55" eb="57">
+      <t>ジッソウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1497,8 +1500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1515,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="C1" s="45"/>
       <c r="D1" s="45"/>
@@ -1593,13 +1596,13 @@
         <v>7</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D8" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="21" t="s">
         <v>30</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="99" customHeight="1" x14ac:dyDescent="0.15">
@@ -1611,10 +1614,10 @@
         <v>24</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E9" s="26" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="134.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -1626,10 +1629,10 @@
         <v>21</v>
       </c>
       <c r="D10" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1675,10 +1678,10 @@
         <v>7</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D14" s="40" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E14" s="15"/>
     </row>
@@ -1691,7 +1694,7 @@
         <v>21</v>
       </c>
       <c r="D15" s="27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E15" s="15"/>
     </row>
@@ -1935,6 +1938,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -2118,32 +2130,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{28F83536-AE8D-4C00-B463-D435459F7B34}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2159,12 +2170,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>